--- a/biology/Biologie cellulaire et moléculaire/Cellule_épithelioïde/Cellule_épithelioïde.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cellule_épithelioïde/Cellule_épithelioïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cellule_%C3%A9pithelio%C3%AFde</t>
+          <t>Cellule_épithelioïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cellules épithélioïdes (parfois appelées aussi histiocytes épithélioïdes) sont des cellules dérivées de macrophages activés et ressemblant à des cellules épithéliales.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cellule_%C3%A9pithelio%C3%AFde</t>
+          <t>Cellule_épithelioïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après coloration à l'hématoxyline et à l'éosine, sous microscope, les cellules épithélioïdes sont des cellules allongées ou parfois arrondies à cytoplasme abondant éosinophile pales (coloration rose pale) à granulation légère et à noyau allongé ovoïde ou encoché clair avec un petit nucléole et une chromatine fine moins denses que celui d'un lymphocyte[1]. Leur cytoplasme contient des vacuoles de pinocytose, des lysosomes et un appareil de Golgi bien développé. Leur durée de vie est brève (entre 1 et 3 semaines).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après coloration à l'hématoxyline et à l'éosine, sous microscope, les cellules épithélioïdes sont des cellules allongées ou parfois arrondies à cytoplasme abondant éosinophile pales (coloration rose pale) à granulation légère et à noyau allongé ovoïde ou encoché clair avec un petit nucléole et une chromatine fine moins denses que celui d'un lymphocyte. Leur cytoplasme contient des vacuoles de pinocytose, des lysosomes et un appareil de Golgi bien développé. Leur durée de vie est brève (entre 1 et 3 semaines).
 Ce sont des cellules caractéristiques de l'hypersensibilité granulomateuse. Ce sont des grandes cellules aplaties avec un réticulum endoplasmique accru. On pense que ce sont des macrophages activés qui se sont différenciés après une stimulation antigénique prolongée. La différenciation se poursuit ou les cellules peuvent fusionner pour produire des cellules polynucluées géantes (cellule géante).
 </t>
         </is>
